--- a/record_mxq.xlsx
+++ b/record_mxq.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12450" tabRatio="429"/>
+    <workbookView windowWidth="27885" windowHeight="13065" tabRatio="429"/>
   </bookViews>
   <sheets>
     <sheet name="record" sheetId="1" r:id="rId1"/>
@@ -226,9 +226,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -265,11 +265,77 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -278,49 +344,71 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -328,96 +416,8 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -496,7 +496,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,7 +550,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,7 +634,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,49 +646,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,91 +664,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,17 +843,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -863,45 +857,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -923,6 +878,60 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -931,152 +940,143 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1251,55 +1251,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1638,11 +1638,11 @@
   <sheetPr/>
   <dimension ref="A1:AML27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X$1:XFD$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="30.2916666666667" style="5" customWidth="1"/>
     <col min="2" max="2" width="9.55833333333333" style="5" customWidth="1"/>
@@ -1665,7 +1665,8 @@
     <col min="21" max="21" width="10.9916666666667" style="5" customWidth="1"/>
     <col min="22" max="22" width="23.75" style="5" customWidth="1"/>
     <col min="23" max="23" width="35.9333333333333" style="5" customWidth="1"/>
-    <col min="24" max="1026" width="9" style="5" customWidth="1"/>
+    <col min="24" max="1026" width="9" style="5" hidden="1" customWidth="1"/>
+    <col min="1027" max="16384" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
@@ -2349,7 +2350,7 @@
       </c>
       <c r="V12" s="43"/>
     </row>
-    <row r="13" ht="15.75" spans="1:22">
+    <row r="13" ht="14.25" spans="1:22">
       <c r="A13" s="9" t="s">
         <v>36</v>
       </c>
@@ -2566,7 +2567,7 @@
       </c>
       <c r="V16" s="43"/>
     </row>
-    <row r="17" s="3" customFormat="1" ht="15.75" spans="1:1026">
+    <row r="17" s="3" customFormat="1" ht="14.25" spans="1:1026">
       <c r="A17" s="12" t="s">
         <v>36</v>
       </c>
@@ -4689,7 +4690,7 @@
       <c r="V19" s="17"/>
       <c r="W19" s="47"/>
     </row>
-    <row r="20" ht="15.75" spans="1:23">
+    <row r="20" ht="14.25" spans="1:23">
       <c r="A20" s="18" t="s">
         <v>36</v>
       </c>
@@ -4760,7 +4761,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" ht="15.75" spans="1:23">
+    <row r="21" ht="14.25" spans="1:23">
       <c r="A21" s="9" t="s">
         <v>36</v>
       </c>
@@ -4829,7 +4830,7 @@
       </c>
       <c r="W21" s="43"/>
     </row>
-    <row r="22" ht="15.75" spans="1:23">
+    <row r="22" ht="14.25" spans="1:23">
       <c r="A22" s="20" t="s">
         <v>36</v>
       </c>
@@ -4900,7 +4901,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" ht="15.75" spans="1:23">
+    <row r="23" ht="14.25" spans="1:23">
       <c r="A23" s="9" t="s">
         <v>36</v>
       </c>
@@ -4969,7 +4970,7 @@
       </c>
       <c r="W23" s="43"/>
     </row>
-    <row r="24" ht="15.75" spans="1:23">
+    <row r="24" ht="14.25" spans="1:23">
       <c r="A24" s="9" t="s">
         <v>36</v>
       </c>
@@ -5040,7 +5041,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" s="4" customFormat="1" ht="15.75" spans="1:1026">
+    <row r="25" s="4" customFormat="1" ht="14.25" spans="1:1026">
       <c r="A25" s="22" t="s">
         <v>36</v>
       </c>
@@ -6114,7 +6115,7 @@
       <c r="AMK25" s="54"/>
       <c r="AML25" s="54"/>
     </row>
-    <row r="26" ht="15.75" spans="1:23">
+    <row r="26" ht="14.25" spans="1:23">
       <c r="A26" s="20" t="s">
         <v>36</v>
       </c>
@@ -6185,7 +6186,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" ht="15.75" spans="1:23">
+    <row r="27" ht="14.25" spans="1:23">
       <c r="A27" s="25" t="s">
         <v>65</v>
       </c>
